--- a/data/Leidingplanning 2017 date formatted zondag.xlsx
+++ b/data/Leidingplanning 2017 date formatted zondag.xlsx
@@ -961,18 +961,18 @@
   </sheetPr>
   <dimension ref="A1:BU60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F73" activeCellId="0" sqref="F73"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AS1" activeCellId="0" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="44" min="3" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="2.03643724696356"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="151.785425101215"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="44" min="3" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="1.92712550607287"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="153.178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -980,133 +980,133 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="n">
-        <v>43025.3333333333</v>
+        <v>43030.3333333333</v>
       </c>
       <c r="D1" s="3" t="n">
-        <v>43025.3402777778</v>
+        <v>43030.3402777778</v>
       </c>
       <c r="E1" s="3" t="n">
-        <v>43025.3472222222</v>
+        <v>43030.3472222222</v>
       </c>
       <c r="F1" s="3" t="n">
-        <v>43025.3541666667</v>
+        <v>43030.3541666667</v>
       </c>
       <c r="G1" s="3" t="n">
-        <v>43025.3611111111</v>
+        <v>43030.3611111111</v>
       </c>
       <c r="H1" s="3" t="n">
-        <v>43025.3680555556</v>
+        <v>43030.3680555556</v>
       </c>
       <c r="I1" s="3" t="n">
-        <v>43025.375</v>
+        <v>43030.375</v>
       </c>
       <c r="J1" s="3" t="n">
-        <v>43025.3819444445</v>
+        <v>43030.3819444445</v>
       </c>
       <c r="K1" s="3" t="n">
-        <v>43025.3888888889</v>
+        <v>43030.3888888889</v>
       </c>
       <c r="L1" s="3" t="n">
-        <v>43025.3958333333</v>
+        <v>43030.3958333334</v>
       </c>
       <c r="M1" s="3" t="n">
-        <v>43025.4027777778</v>
+        <v>43030.4027777778</v>
       </c>
       <c r="N1" s="3" t="n">
-        <v>43025.4097222222</v>
+        <v>43030.4097222223</v>
       </c>
       <c r="O1" s="3" t="n">
-        <v>43025.4166666667</v>
+        <v>43030.4166666667</v>
       </c>
       <c r="P1" s="3" t="n">
-        <v>43025.4236111111</v>
+        <v>43030.4236111112</v>
       </c>
       <c r="Q1" s="3" t="n">
-        <v>43025.4305555556</v>
+        <v>43030.4305555556</v>
       </c>
       <c r="R1" s="3" t="n">
-        <v>43025.4375</v>
+        <v>43030.4375000001</v>
       </c>
       <c r="S1" s="3" t="n">
-        <v>43025.4444444445</v>
+        <v>43030.4444444445</v>
       </c>
       <c r="T1" s="3" t="n">
-        <v>43025.4513888889</v>
+        <v>43030.451388889</v>
       </c>
       <c r="U1" s="3" t="n">
-        <v>43025.4583333333</v>
+        <v>43030.4583333334</v>
       </c>
       <c r="V1" s="3" t="n">
-        <v>43025.4652777778</v>
+        <v>43030.4652777779</v>
       </c>
       <c r="W1" s="3" t="n">
-        <v>43025.4722222222</v>
+        <v>43030.4722222223</v>
       </c>
       <c r="X1" s="3" t="n">
-        <v>43025.4791666667</v>
+        <v>43030.4791666668</v>
       </c>
       <c r="Y1" s="3" t="n">
-        <v>43025.4861111111</v>
+        <v>43030.4861111112</v>
       </c>
       <c r="Z1" s="3" t="n">
-        <v>43025.4930555556</v>
+        <v>43030.4930555557</v>
       </c>
       <c r="AA1" s="3" t="n">
-        <v>43025.5</v>
+        <v>43030.5000000001</v>
       </c>
       <c r="AB1" s="3" t="n">
-        <v>43025.5069444445</v>
+        <v>43030.5069444446</v>
       </c>
       <c r="AC1" s="3" t="n">
-        <v>43025.5138888889</v>
+        <v>43030.513888889</v>
       </c>
       <c r="AD1" s="3" t="n">
-        <v>43025.5208333334</v>
+        <v>43030.5208333335</v>
       </c>
       <c r="AE1" s="3" t="n">
-        <v>43025.5277777778</v>
+        <v>43030.5277777779</v>
       </c>
       <c r="AF1" s="3" t="n">
-        <v>43025.5347222222</v>
+        <v>43030.5347222224</v>
       </c>
       <c r="AG1" s="3" t="n">
-        <v>43025.5416666667</v>
+        <v>43030.5416666668</v>
       </c>
       <c r="AH1" s="3" t="n">
-        <v>43025.5486111111</v>
+        <v>43030.5486111113</v>
       </c>
       <c r="AI1" s="3" t="n">
-        <v>43025.5555555556</v>
+        <v>43030.5555555557</v>
       </c>
       <c r="AJ1" s="3" t="n">
-        <v>43025.5625</v>
+        <v>43030.5625000002</v>
       </c>
       <c r="AK1" s="3" t="n">
-        <v>43025.5694444445</v>
+        <v>43030.5694444446</v>
       </c>
       <c r="AL1" s="3" t="n">
-        <v>43025.5763888889</v>
+        <v>43030.5763888891</v>
       </c>
       <c r="AM1" s="3" t="n">
-        <v>43025.5833333334</v>
+        <v>43030.5833333335</v>
       </c>
       <c r="AN1" s="3" t="n">
-        <v>43025.5902777778</v>
+        <v>43030.590277778</v>
       </c>
       <c r="AO1" s="3" t="n">
-        <v>43025.5972222223</v>
+        <v>43030.5972222224</v>
       </c>
       <c r="AP1" s="3" t="n">
-        <v>43025.6041666667</v>
+        <v>43030.6041666669</v>
       </c>
       <c r="AQ1" s="3" t="n">
-        <v>43025.6111111111</v>
+        <v>43030.6111111113</v>
       </c>
       <c r="AR1" s="3" t="n">
-        <v>43025.6180555556</v>
+        <v>43030.6180555558</v>
       </c>
       <c r="AS1" s="3" t="n">
-        <v>43025.625</v>
+        <v>43030.6250000002</v>
       </c>
       <c r="AT1" s="4"/>
       <c r="AU1" s="4"/>
